--- a/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.790718626055195</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.067583999655568</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.480722701709738</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000751395282362963</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,28 +456,34 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.540951930273735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.247953959008157</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.9160972754781938</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.256378844969547</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007630579751355393</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -491,28 +503,34 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.209460973093613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.922720807589883</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.8253487340630841</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.123792315763225</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007703004109231657</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -532,28 +550,34 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2.015737785116769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.791850308737253</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.7888293483919995</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.070826911920364</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007732776256747811</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -573,28 +597,34 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.938894377508319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.770210473277245</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.7827903272296055</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.062090195834273</v>
       </c>
       <c r="F6">
         <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007737736954299783</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -614,28 +644,34 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.926251627557633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.920949534452632</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.8248544844527999</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.123073977529188</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007703404513129186</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -655,28 +691,34 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2.014693393604674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3.601678204977134</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.014810966169733</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.402145307765906</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000755403142748502</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -696,28 +738,34 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.42437937968657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5.019457673650322</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.411202156332536</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.003279875967507</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000726466878385708</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -737,28 +785,34 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.325471773705189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>6.145102325115943</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.727427437642064</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.501000380196217</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007049163411560354</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -778,28 +832,34 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>4.081574230494027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6.68561540750153</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.879935572372233</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.746972076009399</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000694894117386874</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -819,28 +879,34 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.456467405701829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6.895538934289334</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.939300539636463</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.843794946761562</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000691049840479911</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -860,28 +926,34 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4.604069663623306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6.850072973474028</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.92643638543359</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.822761899859799</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006918802946979228</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -901,28 +973,34 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4.572007379414856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6.702773070093713</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.884784716891488</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.754858045574963</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006945789495685799</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -942,28 +1020,34 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.468489674492417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>6.613270246674688</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.859494810339243</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.71377455262602</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006962249509538594</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -983,28 +1067,34 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>4.405857535785003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>6.110442316055639</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.71766398745433</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.485387107668771</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007055655206376077</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1024,28 +1114,34 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>4.057790879647456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5.809984793279511</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.633103009713977</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.350824085299308</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007112285762430867</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1065,28 +1161,34 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.852934721393211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5.639763171834772</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.585253296947371</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.275203061628446</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007144665185829996</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1106,28 +1208,34 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.737931734922711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5.582544396890228</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.569177880468203</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.249881899175506</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007155599748867278</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1147,28 +1255,34 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.699447789025101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5.84169324317412</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.642020826291684</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.364959299972924</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007106278433436926</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1188,28 +1302,34 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.874442071347488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>6.7458854797556</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.896971537908598</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.774694891698104</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006937877877016972</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1229,28 +1349,34 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4.498731096724356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>7.368192078659945</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2.073262245003036</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3.064556491621474</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006824833606564709</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1270,28 +1396,34 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>4.940437270737107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>7.032710183717484</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.978134742906946</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.907464854272746</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006885513620513706</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1311,28 +1443,34 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4.701115722045245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5.827350100182741</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.637986723231734</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.358563407729264</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007108994890266069</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1352,28 +1490,34 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.864710050500008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4.624010219084028</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.300472519496168</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.832825255685378</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007343027199057313</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1392,6 +1536,12 @@
       </c>
       <c r="M25">
         <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>3.068119853686838</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.790718626055195</v>
+        <v>2.388282978750055</v>
       </c>
       <c r="C2">
-        <v>1.067583999655568</v>
+        <v>0.6122780464914683</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.480722701709738</v>
+        <v>0.3504962187706013</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.230830068743302</v>
       </c>
       <c r="G2">
-        <v>0.000751395282362963</v>
+        <v>0.0007857756225299423</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1150370876801414</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01849142155695205</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.078690002940405</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.540951930273735</v>
+        <v>0.8441143013763366</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.247953959008157</v>
+        <v>2.083161355520588</v>
       </c>
       <c r="C3">
-        <v>0.9160972754781938</v>
+        <v>0.5379040427790187</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.256378844969547</v>
+        <v>0.3210924208161146</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.140416296927157</v>
       </c>
       <c r="G3">
-        <v>0.0007630579751355393</v>
+        <v>0.0007898521974755305</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1264606600793012</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01887621813756724</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9397009316867155</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.209460973093613</v>
+        <v>0.8232170387987168</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.922720807589883</v>
+        <v>1.895907413863</v>
       </c>
       <c r="C4">
-        <v>0.8253487340630841</v>
+        <v>0.4922485007907085</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.123792315763225</v>
+        <v>0.3034628186922674</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.087579495622194</v>
       </c>
       <c r="G4">
-        <v>0.0007703004109231657</v>
+        <v>0.0007924316932294981</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1342755092479138</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01914968754843649</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8547234627110285</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.015737785116769</v>
+        <v>0.8142504812225866</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.791850308737253</v>
+        <v>1.819597511627478</v>
       </c>
       <c r="C5">
-        <v>0.7888293483919995</v>
+        <v>0.4736397184483394</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.070826911920364</v>
+        <v>0.2963776822961961</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.066676872502413</v>
       </c>
       <c r="G5">
-        <v>0.0007732776256747811</v>
+        <v>0.0007935025203274906</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1376516211807299</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01927016220709632</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8201693744049621</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.938894377508319</v>
+        <v>0.8115103697218018</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.770210473277245</v>
+        <v>1.806925454111109</v>
       </c>
       <c r="C6">
-        <v>0.7827903272296055</v>
+        <v>0.4705493381801489</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.062090195834273</v>
+        <v>0.295206968988559</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.063242731554922</v>
       </c>
       <c r="G6">
-        <v>0.0007737736954299783</v>
+        <v>0.0007936815302648466</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1382235093910094</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01929070351384077</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8144357656289642</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.926251627557633</v>
+        <v>0.8111089340782627</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.920949534452632</v>
+        <v>1.894878313981081</v>
       </c>
       <c r="C7">
-        <v>0.8248544844527999</v>
+        <v>0.4919975596545783</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.123073977529188</v>
+        <v>0.3033668747309335</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.087295106559694</v>
       </c>
       <c r="G7">
-        <v>0.0007703404513129186</v>
+        <v>0.0007924460546006808</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.134320277960974</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.01915127614527457</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8542571715016862</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.014693393604674</v>
+        <v>0.8142099013529247</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.601678204977134</v>
+        <v>2.283041933906475</v>
       </c>
       <c r="C8">
-        <v>1.014810966169733</v>
+        <v>0.5866277165724796</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.402145307765906</v>
+        <v>0.3402649312744899</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.199072064336107</v>
       </c>
       <c r="G8">
-        <v>0.000755403142748502</v>
+        <v>0.0007871656248100581</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1188036580388125</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.01861617856276609</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.030681236976072</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.42437937968657</v>
+        <v>0.8360710315139954</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.019457673650322</v>
+        <v>3.046241184521477</v>
       </c>
       <c r="C9">
-        <v>1.411202156332536</v>
+        <v>0.7726012261664437</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.003279875967507</v>
+        <v>0.4163629457834404</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.441660754019537</v>
       </c>
       <c r="G9">
-        <v>0.000726466878385708</v>
+        <v>0.0007773964720660574</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.09519856042254915</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.01787754073307646</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.380325672990011</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.325471773705189</v>
+        <v>0.9123782259431295</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.145102325115943</v>
+        <v>3.610172932793944</v>
       </c>
       <c r="C10">
-        <v>1.727427437642064</v>
+        <v>0.9099809590434234</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.501000380196217</v>
+        <v>0.475116297313761</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>1.637369010398359</v>
       </c>
       <c r="G10">
-        <v>0.0007049163411560354</v>
+        <v>0.0007705449501822856</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.08270926336992623</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.01754744750700254</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.640678034230021</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.081574230494027</v>
+        <v>0.9929492730411198</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.68561540750153</v>
+        <v>3.867903380507073</v>
       </c>
       <c r="C11">
-        <v>1.879935572372233</v>
+        <v>0.9727632302349036</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.746972076009399</v>
+        <v>0.5025995034487494</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>1.730975683888701</v>
       </c>
       <c r="G11">
-        <v>0.000694894117386874</v>
+        <v>0.0007674913238644301</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.07824802943964215</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0174490730530561</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.76017192560289</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.456467405701829</v>
+        <v>1.035918388584776</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.895538934289334</v>
+        <v>3.965714354198553</v>
       </c>
       <c r="C12">
-        <v>1.939300539636463</v>
+        <v>0.9965895968888105</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.843794946761562</v>
+        <v>0.513127839459429</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>1.767151112274576</v>
       </c>
       <c r="G12">
-        <v>0.000691049840479911</v>
+        <v>0.000766343416691009</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.07674930951541903</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.01741978423368984</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.805600209606638</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.604069663623306</v>
+        <v>1.05318837816651</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.850072973474028</v>
+        <v>3.944638779464697</v>
       </c>
       <c r="C13">
-        <v>1.92643638543359</v>
+        <v>0.991455664611351</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.822761899859799</v>
+        <v>0.5108547825961196</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>1.75932649807379</v>
       </c>
       <c r="G13">
-        <v>0.0006918802946979228</v>
+        <v>0.0007665902747045697</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.07706335157712019</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.01742572923197194</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.795808030617039</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.572007379414856</v>
+        <v>1.049423053064316</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.702773070093713</v>
+        <v>3.875945803442505</v>
       </c>
       <c r="C14">
-        <v>1.884784716891488</v>
+        <v>0.9747223309377659</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.754858045574963</v>
+        <v>0.5034631756419259</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.733936831811278</v>
       </c>
       <c r="G14">
-        <v>0.0006945789495685799</v>
+        <v>0.0007673967196856823</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.07812081659922931</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.01744650072936516</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.763905600411391</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.468489674492417</v>
+        <v>1.037318646616882</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.613270246674688</v>
+        <v>3.833898562827187</v>
       </c>
       <c r="C15">
-        <v>1.859494810339243</v>
+        <v>0.9644797990026746</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.71377455262602</v>
+        <v>0.4989517505547596</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>1.718482002505283</v>
       </c>
       <c r="G15">
-        <v>0.0006962249509538594</v>
+        <v>0.0007678917688467624</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.07879384430418668</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0174602770268546</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.744388513697174</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.405857535785003</v>
+        <v>1.030037185471826</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.110442316055639</v>
+        <v>3.593357213698312</v>
       </c>
       <c r="C16">
-        <v>1.71766398745433</v>
+        <v>0.9058846716427524</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.485387107668771</v>
+        <v>0.4733364477494106</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>1.631349592116479</v>
       </c>
       <c r="G16">
-        <v>0.0007055655206376077</v>
+        <v>0.0007707457286300891</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.08302664062125409</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01755496176730809</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.632892324455767</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.057790879647456</v>
+        <v>0.9902757950568457</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.809984793279511</v>
+        <v>3.446127855539999</v>
       </c>
       <c r="C17">
-        <v>1.633103009713977</v>
+        <v>0.8700194409050823</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.350824085299308</v>
+        <v>0.4578243628666456</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>1.579117421240625</v>
       </c>
       <c r="G17">
-        <v>0.0007112285762430867</v>
+        <v>0.0007725122726735165</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.08594628694293505</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.01762666571402427</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.564782123644875</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.852934721393211</v>
+        <v>0.9675632816842494</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.639763171834772</v>
+        <v>3.361555170039935</v>
       </c>
       <c r="C18">
-        <v>1.585253296947371</v>
+        <v>0.8494170748809324</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.275203061628446</v>
+        <v>0.4489725824885156</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>1.549501219833232</v>
       </c>
       <c r="G18">
-        <v>0.0007144665185829996</v>
+        <v>0.0007735343291063734</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.08773946541455757</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.01767274892867476</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.525704840424353</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.737931734922711</v>
+        <v>0.9550884156040809</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.582544396890228</v>
+        <v>3.332937934485244</v>
       </c>
       <c r="C19">
-        <v>1.569177880468203</v>
+        <v>0.8424456847313593</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.249881899175506</v>
+        <v>0.4459872477657996</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>1.539544863147938</v>
       </c>
       <c r="G19">
-        <v>0.0007155599748867278</v>
+        <v>0.0007738814270222727</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.08836571934241455</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.01768916831604983</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.512489992338402</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.699447789025101</v>
+        <v>0.9509631322156338</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.84169324317412</v>
+        <v>3.461789019585353</v>
       </c>
       <c r="C20">
-        <v>1.642020826291684</v>
+        <v>0.8738345524736815</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.364959299972924</v>
+        <v>0.4594682828101639</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.584633007498411</v>
       </c>
       <c r="G20">
-        <v>0.0007106278433436926</v>
+        <v>0.0007723236059554597</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.08562359371462591</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.01761852807640807</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.572022254528207</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.874442071347488</v>
+        <v>0.9699195019491071</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.7458854797556</v>
+        <v>3.896116431745327</v>
       </c>
       <c r="C21">
-        <v>1.896971537908598</v>
+        <v>0.9796358126912423</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.774694891698104</v>
+        <v>0.5056308810878392</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.741374028104616</v>
       </c>
       <c r="G21">
-        <v>0.0006937877877016972</v>
+        <v>0.0007671596237503475</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.07780491220504437</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.01744017917619622</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.773271050366048</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.498731096724356</v>
+        <v>1.040846149662116</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.368192078659945</v>
+        <v>4.181244434764892</v>
       </c>
       <c r="C22">
-        <v>2.073262245003036</v>
+        <v>1.049092338201916</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.064556491621474</v>
+        <v>0.5365128560711341</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>1.848097270693373</v>
       </c>
       <c r="G22">
-        <v>0.0006824833606564709</v>
+        <v>0.0007638334904731768</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.07381415803177482</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.0173703070127722</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.905853381439755</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.940437270737107</v>
+        <v>1.093068213275899</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.032710183717484</v>
+        <v>4.028935129541935</v>
       </c>
       <c r="C23">
-        <v>1.978134742906946</v>
+        <v>1.011989975587937</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.907464854272746</v>
+        <v>0.5199610507076429</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>1.790720279473064</v>
       </c>
       <c r="G23">
-        <v>0.0006885513620513706</v>
+        <v>0.0007656044699678895</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.07583635266982824</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.01740314469816617</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.83498587526482</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.701115722045245</v>
+        <v>1.064627703154258</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.827350100182741</v>
+        <v>3.454708387965127</v>
       </c>
       <c r="C24">
-        <v>1.637986723231734</v>
+        <v>0.8721096882794939</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.358563407729264</v>
+        <v>0.4587248609386663</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>1.582138130510188</v>
       </c>
       <c r="G24">
-        <v>0.0007108994890266069</v>
+        <v>0.000772408882052523</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.08576912739504294</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.01762219200413284</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.568748743582162</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.864710050500008</v>
+        <v>0.9688524460152053</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.624010219084028</v>
+        <v>2.83936525389214</v>
       </c>
       <c r="C25">
-        <v>1.300472519496168</v>
+        <v>0.7221982698958413</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.832825255685378</v>
+        <v>0.3953203818587383</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>1.373211963242781</v>
       </c>
       <c r="G25">
-        <v>0.0007343027199057313</v>
+        <v>0.000779979678360108</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1007852290568767</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.01804181709320574</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.285223104292712</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.068119853686838</v>
+        <v>0.8877475954919021</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.388282978750055</v>
+        <v>0.7854210155738883</v>
       </c>
       <c r="C2">
-        <v>0.6122780464914683</v>
+        <v>0.1977490234365575</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3504962187706013</v>
+        <v>0.5377489462377554</v>
       </c>
       <c r="F2">
-        <v>1.230830068743302</v>
+        <v>1.886021615883919</v>
       </c>
       <c r="G2">
-        <v>0.0007857756225299423</v>
+        <v>0.002400000844395342</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1150370876801414</v>
+        <v>0.363236892907203</v>
       </c>
       <c r="J2">
-        <v>0.01849142155695205</v>
+        <v>0.03066325496517486</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.078690002940405</v>
+        <v>0.5869644130803451</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8441143013763366</v>
+        <v>1.663272803194701</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.083161355520588</v>
+        <v>0.6874601688413122</v>
       </c>
       <c r="C3">
-        <v>0.5379040427790187</v>
+        <v>0.1735870702608224</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3210924208161146</v>
+        <v>0.5332302075385584</v>
       </c>
       <c r="F3">
-        <v>1.140416296927157</v>
+        <v>1.881149085181249</v>
       </c>
       <c r="G3">
-        <v>0.0007898521974755305</v>
+        <v>0.00240261849205622</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1264606600793012</v>
+        <v>0.3718039240765876</v>
       </c>
       <c r="J3">
-        <v>0.01887621813756724</v>
+        <v>0.03093978266645969</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9397009316867155</v>
+        <v>0.5469028548780273</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8232170387987168</v>
+        <v>1.683161982392434</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.895907413863</v>
+        <v>0.6271188673048016</v>
       </c>
       <c r="C4">
-        <v>0.4922485007907085</v>
+        <v>0.1586822881201613</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3034628186922674</v>
+        <v>0.5306843695216656</v>
       </c>
       <c r="F4">
-        <v>1.087579495622194</v>
+        <v>1.879414442267731</v>
       </c>
       <c r="G4">
-        <v>0.0007924316932294981</v>
+        <v>0.002404310250795848</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1342755092479138</v>
+        <v>0.3774169532698632</v>
       </c>
       <c r="J4">
-        <v>0.01914968754843649</v>
+        <v>0.03112717696169298</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8547234627110285</v>
+        <v>0.5224072806424331</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8142504812225866</v>
+        <v>1.697001331041619</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.819597511627478</v>
+        <v>0.6024823032914242</v>
       </c>
       <c r="C5">
-        <v>0.4736397184483394</v>
+        <v>0.1525914082559439</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2963776822961961</v>
+        <v>0.5297044750455271</v>
       </c>
       <c r="F5">
-        <v>1.066676872502413</v>
+        <v>1.879023290837125</v>
       </c>
       <c r="G5">
-        <v>0.0007935025203274906</v>
+        <v>0.002405020970864648</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1376516211807299</v>
+        <v>0.3797928026534532</v>
       </c>
       <c r="J5">
-        <v>0.01927016220709632</v>
+        <v>0.03120797312889678</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8201693744049621</v>
+        <v>0.5124514094251111</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8115103697218018</v>
+        <v>1.703049029124827</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.806925454111109</v>
+        <v>0.5983886274744066</v>
       </c>
       <c r="C6">
-        <v>0.4705493381801489</v>
+        <v>0.1515790023475176</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.295206968988559</v>
+        <v>0.5295452420132847</v>
       </c>
       <c r="F6">
-        <v>1.063242731554922</v>
+        <v>1.878977398621927</v>
       </c>
       <c r="G6">
-        <v>0.0007936815302648466</v>
+        <v>0.002405140274490269</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1382235093910094</v>
+        <v>0.3801926487487091</v>
       </c>
       <c r="J6">
-        <v>0.01929070351384077</v>
+        <v>0.03122165705605795</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8144357656289642</v>
+        <v>0.5107998471607971</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8111089340782627</v>
+        <v>1.704077856331224</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.894878313981081</v>
+        <v>0.6267867982304551</v>
       </c>
       <c r="C7">
-        <v>0.4919975596545783</v>
+        <v>0.1586002129895121</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3033668747309335</v>
+        <v>0.5306709212165259</v>
       </c>
       <c r="F7">
-        <v>1.087295106559694</v>
+        <v>1.879407889194084</v>
       </c>
       <c r="G7">
-        <v>0.0007924460546006808</v>
+        <v>0.002404319749195965</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.134320277960974</v>
+        <v>0.37744863680037</v>
       </c>
       <c r="J7">
-        <v>0.01915127614527457</v>
+        <v>0.031128248658014</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8542571715016862</v>
+        <v>0.5222729051938018</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8142099013529247</v>
+        <v>1.697081241760429</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.283041933906475</v>
+        <v>0.7516850416608918</v>
       </c>
       <c r="C8">
-        <v>0.5866277165724796</v>
+        <v>0.189432556841922</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3402649312744899</v>
+        <v>0.5361434487158405</v>
       </c>
       <c r="F8">
-        <v>1.199072064336107</v>
+        <v>1.884080417294427</v>
       </c>
       <c r="G8">
-        <v>0.0007871656248100581</v>
+        <v>0.002400885907424781</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1188036580388125</v>
+        <v>0.3661174370099491</v>
       </c>
       <c r="J8">
-        <v>0.01861617856276609</v>
+        <v>0.03075495041217025</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.030681236976072</v>
+        <v>0.5731302408728496</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8360710315139954</v>
+        <v>1.669792152299792</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.046241184521477</v>
+        <v>0.9950244096683036</v>
       </c>
       <c r="C9">
-        <v>0.7726012261664437</v>
+        <v>0.2493327391674995</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4163629457834404</v>
+        <v>0.5486885322699209</v>
       </c>
       <c r="F9">
-        <v>1.441660754019537</v>
+        <v>1.90323845412135</v>
       </c>
       <c r="G9">
-        <v>0.0007773964720660574</v>
+        <v>0.002394819798653006</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.09519856042254915</v>
+        <v>0.3467065506732681</v>
       </c>
       <c r="J9">
-        <v>0.01787754073307646</v>
+        <v>0.03016242044265027</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.380325672990011</v>
+        <v>0.6736558225265981</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9123782259431295</v>
+        <v>1.629242619880529</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.610172932793944</v>
+        <v>1.172783483433477</v>
       </c>
       <c r="C10">
-        <v>0.9099809590434234</v>
+        <v>0.292986341311348</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.475116297313761</v>
+        <v>0.5590112674147107</v>
       </c>
       <c r="F10">
-        <v>1.637369010398359</v>
+        <v>1.923440706353176</v>
       </c>
       <c r="G10">
-        <v>0.0007705449501822856</v>
+        <v>0.002390765937278728</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.08270926336992623</v>
+        <v>0.3341713694016111</v>
       </c>
       <c r="J10">
-        <v>0.01754744750700254</v>
+        <v>0.0298119137457693</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.640678034230021</v>
+        <v>0.7479801970523567</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9929492730411198</v>
+        <v>1.607427270509447</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.867903380507073</v>
+        <v>1.253418219181299</v>
       </c>
       <c r="C11">
-        <v>0.9727632302349036</v>
+        <v>0.3127660710422617</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5025995034487494</v>
+        <v>0.5639476725198591</v>
       </c>
       <c r="F11">
-        <v>1.730975683888701</v>
+        <v>1.93396915253642</v>
       </c>
       <c r="G11">
-        <v>0.0007674913238644301</v>
+        <v>0.00238900834378586</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.07824802943964215</v>
+        <v>0.328846387818766</v>
       </c>
       <c r="J11">
-        <v>0.0174490730530561</v>
+        <v>0.02967083560602113</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.76017192560289</v>
+        <v>0.7818910902111185</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.035918388584776</v>
+        <v>1.599250615895016</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.965714354198553</v>
+        <v>1.283918353165177</v>
       </c>
       <c r="C12">
-        <v>0.9965895968888105</v>
+        <v>0.3202445648337857</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.513127839459429</v>
+        <v>0.5658515331593179</v>
       </c>
       <c r="F12">
-        <v>1.767151112274576</v>
+        <v>1.938148968982119</v>
       </c>
       <c r="G12">
-        <v>0.000766343416691009</v>
+        <v>0.002388355165659606</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.07674930951541903</v>
+        <v>0.3268844609347354</v>
       </c>
       <c r="J12">
-        <v>0.01741978423368984</v>
+        <v>0.02962005115759858</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.805600209606638</v>
+        <v>0.7947462874113569</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.05318837816651</v>
+        <v>1.596406849937779</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.944638779464697</v>
+        <v>1.277351162788023</v>
       </c>
       <c r="C13">
-        <v>0.991455664611351</v>
+        <v>0.3186344618534918</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5108547825961196</v>
+        <v>0.5654399666344858</v>
       </c>
       <c r="F13">
-        <v>1.75932649807379</v>
+        <v>1.937240182952209</v>
       </c>
       <c r="G13">
-        <v>0.0007665902747045697</v>
+        <v>0.002388495289387204</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.07706335157712019</v>
+        <v>0.3273045675807982</v>
       </c>
       <c r="J13">
-        <v>0.01742572923197194</v>
+        <v>0.02963087117769447</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.795808030617039</v>
+        <v>0.791977082231341</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.049423053064316</v>
+        <v>1.597008052637079</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.875945803442505</v>
+        <v>1.25592818387895</v>
       </c>
       <c r="C14">
-        <v>0.9747223309377659</v>
+        <v>0.3133815670313709</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5034631756419259</v>
+        <v>0.5641036120400287</v>
       </c>
       <c r="F14">
-        <v>1.733936831811278</v>
+        <v>1.934309159402858</v>
       </c>
       <c r="G14">
-        <v>0.0007673967196856823</v>
+        <v>0.002388954358619209</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.07812081659922931</v>
+        <v>0.3286838845566749</v>
       </c>
       <c r="J14">
-        <v>0.01744650072936516</v>
+        <v>0.02966660466862692</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.763905600411391</v>
+        <v>0.7829484200437662</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.037318646616882</v>
+        <v>1.599011588520028</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.833898562827187</v>
+        <v>1.24280145198685</v>
       </c>
       <c r="C15">
-        <v>0.9644797990026746</v>
+        <v>0.3101624877966174</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4989517505547596</v>
+        <v>0.5632895547234398</v>
       </c>
       <c r="F15">
-        <v>1.718482002505283</v>
+        <v>1.93253896100623</v>
       </c>
       <c r="G15">
-        <v>0.0007678917688467624</v>
+        <v>0.002389237162802769</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.07879384430418668</v>
+        <v>0.3295358651383378</v>
       </c>
       <c r="J15">
-        <v>0.0174602770268546</v>
+        <v>0.0296888360340084</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.744388513697174</v>
+        <v>0.7774198947108317</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.030037185471826</v>
+        <v>1.60027174089177</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.593357213698312</v>
+        <v>1.167509073862391</v>
       </c>
       <c r="C16">
-        <v>0.9058846716427524</v>
+        <v>0.2916920778103531</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4733364477494106</v>
+        <v>0.5586934987330494</v>
       </c>
       <c r="F16">
-        <v>1.631349592116479</v>
+        <v>1.922779618693653</v>
       </c>
       <c r="G16">
-        <v>0.0007707457286300891</v>
+        <v>0.002390882536356323</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.08302664062125409</v>
+        <v>0.3345269853118396</v>
       </c>
       <c r="J16">
-        <v>0.01755496176730809</v>
+        <v>0.02982150293528285</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.632892324455767</v>
+        <v>0.7457660125070902</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9902757950568457</v>
+        <v>1.607996904800899</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.446127855539999</v>
+        <v>1.121259907698743</v>
       </c>
       <c r="C17">
-        <v>0.8700194409050823</v>
+        <v>0.2803407056125593</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4578243628666456</v>
+        <v>0.5559355480033119</v>
       </c>
       <c r="F17">
-        <v>1.579117421240625</v>
+        <v>1.917135694205953</v>
       </c>
       <c r="G17">
-        <v>0.0007725122726735165</v>
+        <v>0.002391914040095484</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.08594628694293505</v>
+        <v>0.3376857110462321</v>
       </c>
       <c r="J17">
-        <v>0.01762666571402427</v>
+        <v>0.02990759260106124</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.564782123644875</v>
+        <v>0.7263726904885743</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9675632816842494</v>
+        <v>1.613184484851303</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.361555170039935</v>
+        <v>1.094637173025262</v>
       </c>
       <c r="C18">
-        <v>0.8494170748809324</v>
+        <v>0.2738043284558671</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4489725824885156</v>
+        <v>0.5543718907883317</v>
       </c>
       <c r="F18">
-        <v>1.549501219833232</v>
+        <v>1.914015400887479</v>
       </c>
       <c r="G18">
-        <v>0.0007735343291063734</v>
+        <v>0.002392515481547443</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.08773946541455757</v>
+        <v>0.3395380271279187</v>
       </c>
       <c r="J18">
-        <v>0.01767274892867476</v>
+        <v>0.02995883823679613</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.525704840424353</v>
+        <v>0.7152276439951493</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9550884156040809</v>
+        <v>1.616332626175847</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.332937934485244</v>
+        <v>1.085619539470429</v>
       </c>
       <c r="C19">
-        <v>0.8424456847313593</v>
+        <v>0.2715899693367305</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4459872477657996</v>
+        <v>0.5538463534823208</v>
       </c>
       <c r="F19">
-        <v>1.539544863147938</v>
+        <v>1.912980539643485</v>
       </c>
       <c r="G19">
-        <v>0.0007738814270222727</v>
+        <v>0.00239272052045969</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.08836571934241455</v>
+        <v>0.3401712786264106</v>
       </c>
       <c r="J19">
-        <v>0.01768916831604983</v>
+        <v>0.02997648619424353</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.512489992338402</v>
+        <v>0.7114557678084452</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9509631322156338</v>
+        <v>1.617426725857001</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.461789019585353</v>
+        <v>1.126185440704717</v>
       </c>
       <c r="C20">
-        <v>0.8738345524736815</v>
+        <v>0.2815498438298221</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4594682828101639</v>
+        <v>0.5562267933713514</v>
       </c>
       <c r="F20">
-        <v>1.584633007498411</v>
+        <v>1.917723461585837</v>
       </c>
       <c r="G20">
-        <v>0.0007723236059554597</v>
+        <v>0.002391803391635793</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.08562359371462591</v>
+        <v>0.3373457831808579</v>
       </c>
       <c r="J20">
-        <v>0.01761852807640807</v>
+        <v>0.02989824926960516</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.572022254528207</v>
+        <v>0.7284361656723064</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9699195019491071</v>
+        <v>1.612615235678447</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.896116431745327</v>
+        <v>1.262221580776327</v>
       </c>
       <c r="C21">
-        <v>0.9796358126912423</v>
+        <v>0.314924788970302</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5056308810878392</v>
+        <v>0.5644951943705649</v>
       </c>
       <c r="F21">
-        <v>1.741374028104616</v>
+        <v>1.935164832458568</v>
       </c>
       <c r="G21">
-        <v>0.0007671596237503475</v>
+        <v>0.002388819183272724</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.07780491220504437</v>
+        <v>0.3282772637167604</v>
       </c>
       <c r="J21">
-        <v>0.01744017917619622</v>
+        <v>0.0296560372809882</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.773271050366048</v>
+        <v>0.7855999847351001</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.040846149662116</v>
+        <v>1.598416236815325</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.181244434764892</v>
+        <v>1.350927297074634</v>
       </c>
       <c r="C22">
-        <v>1.049092338201916</v>
+        <v>0.3366691090267011</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5365128560711341</v>
+        <v>0.5701004458963439</v>
       </c>
       <c r="F22">
-        <v>1.848097270693373</v>
+        <v>1.947688494386142</v>
       </c>
       <c r="G22">
-        <v>0.0007638334904731768</v>
+        <v>0.002386940988857278</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.07381415803177482</v>
+        <v>0.3226684174592744</v>
       </c>
       <c r="J22">
-        <v>0.0173703070127722</v>
+        <v>0.02951311745164276</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.905853381439755</v>
+        <v>0.8230404824900432</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.093068213275899</v>
+        <v>1.590609059895087</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.028935129541935</v>
+        <v>1.303602371150646</v>
       </c>
       <c r="C23">
-        <v>1.011989975587937</v>
+        <v>0.3250701120235249</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5199610507076429</v>
+        <v>0.5670904044013554</v>
       </c>
       <c r="F23">
-        <v>1.790720279473064</v>
+        <v>1.940901313005796</v>
       </c>
       <c r="G23">
-        <v>0.0007656044699678895</v>
+        <v>0.002387936833079062</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.07583635266982824</v>
+        <v>0.325632782916685</v>
       </c>
       <c r="J23">
-        <v>0.01740314469816617</v>
+        <v>0.02958799005369528</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.83498587526482</v>
+        <v>0.803050587685334</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.064627703154258</v>
+        <v>1.59464071660517</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.454708387965127</v>
+        <v>1.123958711379714</v>
       </c>
       <c r="C24">
-        <v>0.8721096882794939</v>
+        <v>0.2810032245674563</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4587248609386663</v>
+        <v>0.5560950530411191</v>
       </c>
       <c r="F24">
-        <v>1.582138130510188</v>
+        <v>1.917457344256192</v>
       </c>
       <c r="G24">
-        <v>0.000772408882052523</v>
+        <v>0.002391853389673404</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.08576912739504294</v>
+        <v>0.3374993514448104</v>
       </c>
       <c r="J24">
-        <v>0.01762219200413284</v>
+        <v>0.02990246793319251</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.568748743582162</v>
+        <v>0.7275032546943834</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9688524460152053</v>
+        <v>1.612872077074712</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.83936525389214</v>
+        <v>0.9293702447085366</v>
       </c>
       <c r="C25">
-        <v>0.7221982698958413</v>
+        <v>0.233189619263527</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3953203818587383</v>
+        <v>0.5451005804762161</v>
       </c>
       <c r="F25">
-        <v>1.373211963242781</v>
+        <v>1.896982179821393</v>
       </c>
       <c r="G25">
-        <v>0.000779979678360108</v>
+        <v>0.002396389791790306</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1007852290568767</v>
+        <v>0.3516555606254066</v>
       </c>
       <c r="J25">
-        <v>0.01804181709320574</v>
+        <v>0.03030780390111687</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.285223104292712</v>
+        <v>0.6463776178138545</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8877475954919021</v>
+        <v>1.638816867142381</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7854210155738883</v>
+        <v>2.388282978750055</v>
       </c>
       <c r="C2">
-        <v>0.1977490234365575</v>
+        <v>0.6122780464917525</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5377489462377554</v>
+        <v>0.3504962187706298</v>
       </c>
       <c r="F2">
-        <v>1.886021615883919</v>
+        <v>1.230830068743288</v>
       </c>
       <c r="G2">
-        <v>0.002400000844395342</v>
+        <v>0.0007857756225860762</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.363236892907203</v>
+        <v>0.1150370876801254</v>
       </c>
       <c r="J2">
-        <v>0.03066325496517486</v>
+        <v>0.01849142155693251</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5869644130803451</v>
+        <v>1.078690002940426</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.663272803194701</v>
+        <v>0.8441143013763792</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6874601688413122</v>
+        <v>2.083161355520645</v>
       </c>
       <c r="C3">
-        <v>0.1735870702608224</v>
+        <v>0.5379040427789903</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5332302075385584</v>
+        <v>0.3210924208161359</v>
       </c>
       <c r="F3">
-        <v>1.881149085181249</v>
+        <v>1.140416296927171</v>
       </c>
       <c r="G3">
-        <v>0.00240261849205622</v>
+        <v>0.0007898521974739037</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3718039240765876</v>
+        <v>0.1264606600793012</v>
       </c>
       <c r="J3">
-        <v>0.03093978266645969</v>
+        <v>0.01887621813754947</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5469028548780273</v>
+        <v>0.9397009316867369</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.683161982392434</v>
+        <v>0.8232170387986883</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6271188673048016</v>
+        <v>1.895907413862972</v>
       </c>
       <c r="C4">
-        <v>0.1586822881201613</v>
+        <v>0.4922485007906801</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5306843695216656</v>
+        <v>0.3034628186922816</v>
       </c>
       <c r="F4">
-        <v>1.879414442267731</v>
+        <v>1.087579495622208</v>
       </c>
       <c r="G4">
-        <v>0.002404310250795848</v>
+        <v>0.0007924316932289153</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3774169532698632</v>
+        <v>0.1342755092479049</v>
       </c>
       <c r="J4">
-        <v>0.03112717696169298</v>
+        <v>0.01914968754844004</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5224072806424331</v>
+        <v>0.8547234627110143</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.697001331041619</v>
+        <v>0.8142504812226008</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6024823032914242</v>
+        <v>1.819597511627478</v>
       </c>
       <c r="C5">
-        <v>0.1525914082559439</v>
+        <v>0.4736397184483394</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5297044750455271</v>
+        <v>0.2963776822962245</v>
       </c>
       <c r="F5">
-        <v>1.879023290837125</v>
+        <v>1.066676872502413</v>
       </c>
       <c r="G5">
-        <v>0.002405020970864648</v>
+        <v>0.000793502520327416</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3797928026534532</v>
+        <v>0.1376516211807228</v>
       </c>
       <c r="J5">
-        <v>0.03120797312889678</v>
+        <v>0.01927016220703237</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5124514094251111</v>
+        <v>0.8201693744049692</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.703049029124827</v>
+        <v>0.811510369721745</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5983886274744066</v>
+        <v>1.806925454110996</v>
       </c>
       <c r="C6">
-        <v>0.1515790023475176</v>
+        <v>0.4705493381803763</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5295452420132847</v>
+        <v>0.2952069689885519</v>
       </c>
       <c r="F6">
-        <v>1.878977398621927</v>
+        <v>1.063242731554922</v>
       </c>
       <c r="G6">
-        <v>0.002405140274490269</v>
+        <v>0.0007936815302066691</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3801926487487091</v>
+        <v>0.1382235093909951</v>
       </c>
       <c r="J6">
-        <v>0.03122165705605795</v>
+        <v>0.01929070351384254</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5107998471607971</v>
+        <v>0.8144357656289714</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.704077856331224</v>
+        <v>0.8111089340782627</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6267867982304551</v>
+        <v>1.894878313981025</v>
       </c>
       <c r="C7">
-        <v>0.1586002129895121</v>
+        <v>0.4919975596545783</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5306709212165259</v>
+        <v>0.3033668747309122</v>
       </c>
       <c r="F7">
-        <v>1.879407889194084</v>
+        <v>1.087295106559708</v>
       </c>
       <c r="G7">
-        <v>0.002404319749195965</v>
+        <v>0.0007924460545433798</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.37744863680037</v>
+        <v>0.1343202779609864</v>
       </c>
       <c r="J7">
-        <v>0.031128248658014</v>
+        <v>0.01915127614528522</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5222729051938018</v>
+        <v>0.8542571715016791</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.697081241760429</v>
+        <v>0.8142099013528821</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7516850416608918</v>
+        <v>2.283041933906588</v>
       </c>
       <c r="C8">
-        <v>0.189432556841922</v>
+        <v>0.5866277165721954</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5361434487158405</v>
+        <v>0.3402649312744828</v>
       </c>
       <c r="F8">
-        <v>1.884080417294427</v>
+        <v>1.199072064336107</v>
       </c>
       <c r="G8">
-        <v>0.002400885907424781</v>
+        <v>0.0007871656247930886</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3661174370099491</v>
+        <v>0.1188036580388072</v>
       </c>
       <c r="J8">
-        <v>0.03075495041217025</v>
+        <v>0.01861617856275899</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5731302408728496</v>
+        <v>1.030681236976079</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.669792152299792</v>
+        <v>0.8360710315139812</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9950244096683036</v>
+        <v>3.046241184521534</v>
       </c>
       <c r="C9">
-        <v>0.2493327391674995</v>
+        <v>0.7726012261665574</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5486885322699209</v>
+        <v>0.4163629457834546</v>
       </c>
       <c r="F9">
-        <v>1.90323845412135</v>
+        <v>1.441660754019509</v>
       </c>
       <c r="G9">
-        <v>0.002394819798653006</v>
+        <v>0.0007773964721224458</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3467065506732681</v>
+        <v>0.0951985604225456</v>
       </c>
       <c r="J9">
-        <v>0.03016242044265027</v>
+        <v>0.01787754073308179</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6736558225265981</v>
+        <v>1.380325672990011</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.629242619880529</v>
+        <v>0.9123782259432005</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.172783483433477</v>
+        <v>3.610172932794114</v>
       </c>
       <c r="C10">
-        <v>0.292986341311348</v>
+        <v>0.9099809590437928</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5590112674147107</v>
+        <v>0.4751162973137539</v>
       </c>
       <c r="F10">
-        <v>1.923440706353176</v>
+        <v>1.637369010398359</v>
       </c>
       <c r="G10">
-        <v>0.002390765937278728</v>
+        <v>0.0007705449502010889</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3341713694016111</v>
+        <v>0.08270926336991202</v>
       </c>
       <c r="J10">
-        <v>0.0298119137457693</v>
+        <v>0.01754744750703807</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7479801970523567</v>
+        <v>1.640678034230007</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.607427270509447</v>
+        <v>0.9929492730411198</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.253418219181299</v>
+        <v>3.867903380507187</v>
       </c>
       <c r="C11">
-        <v>0.3127660710422617</v>
+        <v>0.9727632302348752</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5639476725198591</v>
+        <v>0.5025995034487636</v>
       </c>
       <c r="F11">
-        <v>1.93396915253642</v>
+        <v>1.730975683888701</v>
       </c>
       <c r="G11">
-        <v>0.00238900834378586</v>
+        <v>0.0007674913238628751</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.328846387818766</v>
+        <v>0.07824802943965636</v>
       </c>
       <c r="J11">
-        <v>0.02967083560602113</v>
+        <v>0.01744907305299748</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7818910902111185</v>
+        <v>1.760171925602904</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.599250615895016</v>
+        <v>1.035918388584804</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.283918353165177</v>
+        <v>3.96571435419861</v>
       </c>
       <c r="C12">
-        <v>0.3202445648337857</v>
+        <v>0.9965895968885263</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5658515331593179</v>
+        <v>0.5131278394594503</v>
       </c>
       <c r="F12">
-        <v>1.938148968982119</v>
+        <v>1.767151112274561</v>
       </c>
       <c r="G12">
-        <v>0.002388355165659606</v>
+        <v>0.0007663434167094593</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3268844609347354</v>
+        <v>0.07674930951541548</v>
       </c>
       <c r="J12">
-        <v>0.02962005115759858</v>
+        <v>0.01741978423384261</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7947462874113569</v>
+        <v>1.805600209606624</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.596406849937779</v>
+        <v>1.053188378166624</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.277351162788023</v>
+        <v>3.94463877946464</v>
       </c>
       <c r="C13">
-        <v>0.3186344618534918</v>
+        <v>0.9914556646112374</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5654399666344858</v>
+        <v>0.5108547825960983</v>
       </c>
       <c r="F13">
-        <v>1.937240182952209</v>
+        <v>1.759326498073804</v>
       </c>
       <c r="G13">
-        <v>0.002388495289387204</v>
+        <v>0.0007665902746459159</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3273045675807982</v>
+        <v>0.07706335157711663</v>
       </c>
       <c r="J13">
-        <v>0.02963087117769447</v>
+        <v>0.01742572923189201</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.791977082231341</v>
+        <v>1.795808030617067</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.597008052637079</v>
+        <v>1.049423053064316</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.25592818387895</v>
+        <v>3.875945803442448</v>
       </c>
       <c r="C14">
-        <v>0.3133815670313709</v>
+        <v>0.9747223309377091</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5641036120400287</v>
+        <v>0.503463175641933</v>
       </c>
       <c r="F14">
-        <v>1.934309159402858</v>
+        <v>1.733936831811278</v>
       </c>
       <c r="G14">
-        <v>0.002388954358619209</v>
+        <v>0.0007673967196276176</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3286838845566749</v>
+        <v>0.07812081659922754</v>
       </c>
       <c r="J14">
-        <v>0.02966660466862692</v>
+        <v>0.01744650072941667</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7829484200437662</v>
+        <v>1.763905600411391</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.599011588520028</v>
+        <v>1.037318646616882</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.24280145198685</v>
+        <v>3.833898562827301</v>
       </c>
       <c r="C15">
-        <v>0.3101624877966174</v>
+        <v>0.9644797990024188</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5632895547234398</v>
+        <v>0.4989517505547809</v>
       </c>
       <c r="F15">
-        <v>1.93253896100623</v>
+        <v>1.718482002505283</v>
       </c>
       <c r="G15">
-        <v>0.002389237162802769</v>
+        <v>0.0007678917688456986</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3295358651383378</v>
+        <v>0.07879384430417424</v>
       </c>
       <c r="J15">
-        <v>0.0296888360340084</v>
+        <v>0.01746027702685282</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7774198947108317</v>
+        <v>1.744388513697146</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.60027174089177</v>
+        <v>1.030037185471826</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.167509073862391</v>
+        <v>3.593357213698198</v>
       </c>
       <c r="C16">
-        <v>0.2916920778103531</v>
+        <v>0.9058846716427809</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5586934987330494</v>
+        <v>0.4733364477493893</v>
       </c>
       <c r="F16">
-        <v>1.922779618693653</v>
+        <v>1.631349592116507</v>
       </c>
       <c r="G16">
-        <v>0.002390882536356323</v>
+        <v>0.0007707457286486577</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3345269853118396</v>
+        <v>0.08302664062125054</v>
       </c>
       <c r="J16">
-        <v>0.02982150293528285</v>
+        <v>0.01755496176745197</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7457660125070902</v>
+        <v>1.632892324455767</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.607996904800899</v>
+        <v>0.9902757950568173</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.121259907698743</v>
+        <v>3.446127855540055</v>
       </c>
       <c r="C17">
-        <v>0.2803407056125593</v>
+        <v>0.8700194409053381</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5559355480033119</v>
+        <v>0.4578243628666954</v>
       </c>
       <c r="F17">
-        <v>1.917135694205953</v>
+        <v>1.579117421240625</v>
       </c>
       <c r="G17">
-        <v>0.002391914040095484</v>
+        <v>0.0007725122726359667</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3376857110462321</v>
+        <v>0.08594628694293327</v>
       </c>
       <c r="J17">
-        <v>0.02990759260106124</v>
+        <v>0.01762666571402605</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7263726904885743</v>
+        <v>1.564782123644875</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.613184484851303</v>
+        <v>0.9675632816842494</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.094637173025262</v>
+        <v>3.361555170039935</v>
       </c>
       <c r="C18">
-        <v>0.2738043284558671</v>
+        <v>0.8494170748808187</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5543718907883317</v>
+        <v>0.4489725824884943</v>
       </c>
       <c r="F18">
-        <v>1.914015400887479</v>
+        <v>1.54950121983326</v>
       </c>
       <c r="G18">
-        <v>0.002392515481547443</v>
+        <v>0.0007735343290486935</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3395380271279187</v>
+        <v>0.08773946541456112</v>
       </c>
       <c r="J18">
-        <v>0.02995883823679613</v>
+        <v>0.01767274892865522</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7152276439951493</v>
+        <v>1.525704840424353</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.616332626175847</v>
+        <v>0.9550884156040809</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.085619539470429</v>
+        <v>3.332937934485301</v>
       </c>
       <c r="C19">
-        <v>0.2715899693367305</v>
+        <v>0.842445684731473</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5538463534823208</v>
+        <v>0.4459872477658209</v>
       </c>
       <c r="F19">
-        <v>1.912980539643485</v>
+        <v>1.539544863147924</v>
       </c>
       <c r="G19">
-        <v>0.00239272052045969</v>
+        <v>0.0007738814270217156</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3401712786264106</v>
+        <v>0.08836571934243054</v>
       </c>
       <c r="J19">
-        <v>0.02997648619424353</v>
+        <v>0.01768916831611911</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7114557678084452</v>
+        <v>1.512489992338416</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.617426725857001</v>
+        <v>0.9509631322156906</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.126185440704717</v>
+        <v>3.461789019585638</v>
       </c>
       <c r="C20">
-        <v>0.2815498438298221</v>
+        <v>0.8738345524739657</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5562267933713514</v>
+        <v>0.4594682828101853</v>
       </c>
       <c r="F20">
-        <v>1.917723461585837</v>
+        <v>1.584633007498425</v>
       </c>
       <c r="G20">
-        <v>0.002391803391635793</v>
+        <v>0.0007723236059561186</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3373457831808579</v>
+        <v>0.08562359371462414</v>
       </c>
       <c r="J20">
-        <v>0.02989824926960516</v>
+        <v>0.01761852807629083</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7284361656723064</v>
+        <v>1.572022254528193</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.612615235678447</v>
+        <v>0.9699195019490503</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.262221580776327</v>
+        <v>3.89611643174527</v>
       </c>
       <c r="C21">
-        <v>0.314924788970302</v>
+        <v>0.9796358126912139</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5644951943705649</v>
+        <v>0.5056308810878392</v>
       </c>
       <c r="F21">
-        <v>1.935164832458568</v>
+        <v>1.741374028104616</v>
       </c>
       <c r="G21">
-        <v>0.002388819183272724</v>
+        <v>0.0007671596237120832</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3282772637167604</v>
+        <v>0.07780491220504082</v>
       </c>
       <c r="J21">
-        <v>0.0296560372809882</v>
+        <v>0.01744017917619445</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7855999847351001</v>
+        <v>1.773271050366048</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.598416236815325</v>
+        <v>1.040846149662059</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.350927297074634</v>
+        <v>4.181244434764892</v>
       </c>
       <c r="C22">
-        <v>0.3366691090267011</v>
+        <v>1.049092338201973</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5701004458963439</v>
+        <v>0.5365128560711057</v>
       </c>
       <c r="F22">
-        <v>1.947688494386142</v>
+        <v>1.848097270693401</v>
       </c>
       <c r="G22">
-        <v>0.002386940988857278</v>
+        <v>0.0007638334904728561</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3226684174592744</v>
+        <v>0.07381415803177482</v>
       </c>
       <c r="J22">
-        <v>0.02951311745164276</v>
+        <v>0.01737030701278641</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8230404824900432</v>
+        <v>1.905853381439755</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.590609059895087</v>
+        <v>1.093068213275899</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.303602371150646</v>
+        <v>4.028935129541594</v>
       </c>
       <c r="C23">
-        <v>0.3250701120235249</v>
+        <v>1.011989975587994</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5670904044013554</v>
+        <v>0.5199610507076073</v>
       </c>
       <c r="F23">
-        <v>1.940901313005796</v>
+        <v>1.790720279473078</v>
       </c>
       <c r="G23">
-        <v>0.002387936833079062</v>
+        <v>0.0007656044699838376</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.325632782916685</v>
+        <v>0.0758363526698318</v>
       </c>
       <c r="J23">
-        <v>0.02958799005369528</v>
+        <v>0.0174031446980738</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.803050587685334</v>
+        <v>1.834985875264792</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.59464071660517</v>
+        <v>1.064627703154258</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.123958711379714</v>
+        <v>3.454708387965297</v>
       </c>
       <c r="C24">
-        <v>0.2810032245674563</v>
+        <v>0.8721096882794939</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5560950530411191</v>
+        <v>0.4587248609386521</v>
       </c>
       <c r="F24">
-        <v>1.917457344256192</v>
+        <v>1.582138130510174</v>
       </c>
       <c r="G24">
-        <v>0.002391853389673404</v>
+        <v>0.0007724088820138031</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3374993514448104</v>
+        <v>0.08576912739503939</v>
       </c>
       <c r="J24">
-        <v>0.02990246793319251</v>
+        <v>0.01762219200413107</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7275032546943834</v>
+        <v>1.568748743582162</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.612872077074712</v>
+        <v>0.9688524460152053</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9293702447085366</v>
+        <v>2.83936525389197</v>
       </c>
       <c r="C25">
-        <v>0.233189619263527</v>
+        <v>0.722198269895614</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5451005804762161</v>
+        <v>0.3953203818587454</v>
       </c>
       <c r="F25">
-        <v>1.896982179821393</v>
+        <v>1.373211963242795</v>
       </c>
       <c r="G25">
-        <v>0.002396389791790306</v>
+        <v>0.0007799796783765195</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3516555606254066</v>
+        <v>0.1007852290568945</v>
       </c>
       <c r="J25">
-        <v>0.03030780390111687</v>
+        <v>0.01804181709326436</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6463776178138545</v>
+        <v>1.285223104292712</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.638816867142381</v>
+        <v>0.8877475954919163</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.388282978750055</v>
+        <v>3.492327180959364</v>
       </c>
       <c r="C2">
-        <v>0.6122780464917525</v>
+        <v>1.01375156001339</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3504962187706298</v>
+        <v>1.367642178157098</v>
       </c>
       <c r="F2">
-        <v>1.230830068743288</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007857756225860762</v>
+        <v>0.1118591600416536</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01269004585145844</v>
       </c>
       <c r="I2">
-        <v>0.1150370876801254</v>
+        <v>0.006307606325103521</v>
       </c>
       <c r="J2">
-        <v>0.01849142155693251</v>
+        <v>0.1345408721331651</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.09049857989100807</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.078690002940426</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8441143013763792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.4693460752656904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.083161355520645</v>
+        <v>3.048677555731331</v>
       </c>
       <c r="C3">
-        <v>0.5379040427789903</v>
+        <v>0.8973655761042778</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3210924208161359</v>
+        <v>1.195606632424287</v>
       </c>
       <c r="F3">
-        <v>1.140416296927171</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007898521974739037</v>
+        <v>0.1079293172517737</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.009575711408144998</v>
       </c>
       <c r="I3">
-        <v>0.1264606600793012</v>
+        <v>0.004637856491434889</v>
       </c>
       <c r="J3">
-        <v>0.01887621813754947</v>
+        <v>0.1376815033819483</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1004320657772373</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9397009316867369</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8232170387986883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.4672981293679612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.895907413862972</v>
+        <v>2.775687508572105</v>
       </c>
       <c r="C4">
-        <v>0.4922485007906801</v>
+        <v>0.8263039996192276</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3034628186922816</v>
+        <v>1.090111757140136</v>
       </c>
       <c r="F4">
-        <v>1.087579495622208</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007924316932289153</v>
+        <v>0.1059133832747428</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007824563885018648</v>
       </c>
       <c r="I4">
-        <v>0.1342755092479049</v>
+        <v>0.003746977365889137</v>
       </c>
       <c r="J4">
-        <v>0.01914968754844004</v>
+        <v>0.1398799740796122</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1069381637796163</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8547234627110143</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8142504812226008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.4674412523900315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.819597511627478</v>
+        <v>2.664255534178153</v>
       </c>
       <c r="C5">
-        <v>0.4736397184483394</v>
+        <v>0.7987325464705464</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2963776822962245</v>
+        <v>1.047128460474582</v>
       </c>
       <c r="F5">
-        <v>1.066676872502413</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.000793502520327416</v>
+        <v>0.1048940403874461</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.007146949554895143</v>
       </c>
       <c r="I5">
-        <v>0.1376516211807228</v>
+        <v>0.003469646324628872</v>
       </c>
       <c r="J5">
-        <v>0.01927016220703237</v>
+        <v>0.1406810161413894</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1096619658436935</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8201693744049692</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.811510369721745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.46687962425991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.806925454110996</v>
+        <v>2.645709820157379</v>
       </c>
       <c r="C6">
-        <v>0.4705493381803763</v>
+        <v>0.7957468561315295</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2952069689885519</v>
+        <v>1.039978129753806</v>
       </c>
       <c r="F6">
-        <v>1.063242731554922</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007936815302066691</v>
+        <v>0.1043757974656643</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.007035305894304122</v>
       </c>
       <c r="I6">
-        <v>0.1382235093909951</v>
+        <v>0.003499703784749286</v>
       </c>
       <c r="J6">
-        <v>0.01929070351384254</v>
+        <v>0.1406230770910817</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1100906217505757</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8144357656289714</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8111089340782627</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.4656462904419243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.894878313981025</v>
+        <v>2.774096614494738</v>
       </c>
       <c r="C7">
-        <v>0.4919975596545783</v>
+        <v>0.8302789034200657</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3033668747309122</v>
+        <v>1.089495107022131</v>
       </c>
       <c r="F7">
-        <v>1.087295106559708</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0007924460545433798</v>
+        <v>0.1049313372982894</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007811710060360494</v>
       </c>
       <c r="I7">
-        <v>0.1343202779609864</v>
+        <v>0.003931937916518358</v>
       </c>
       <c r="J7">
-        <v>0.01915127614528522</v>
+        <v>0.1393597690578616</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1068976308320553</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8542571715016791</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8142099013528821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.4642682611299875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.283041933906588</v>
+        <v>3.339354334647908</v>
       </c>
       <c r="C8">
-        <v>0.5866277165721954</v>
+        <v>0.9793473075787347</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3402649312744828</v>
+        <v>1.30823848665996</v>
       </c>
       <c r="F8">
-        <v>1.199072064336107</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007871656247930886</v>
+        <v>0.1091400983810473</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.011575460100336</v>
       </c>
       <c r="I8">
-        <v>0.1188036580388072</v>
+        <v>0.005928126859203076</v>
       </c>
       <c r="J8">
-        <v>0.01861617856275899</v>
+        <v>0.1348701926622624</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.09375570342139938</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.030681236976079</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8360710315139812</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.4641709004021379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.046241184521534</v>
+        <v>4.443976795353365</v>
       </c>
       <c r="C9">
-        <v>0.7726012261665574</v>
+        <v>1.267366709062856</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4163629457834546</v>
+        <v>1.739118308244073</v>
       </c>
       <c r="F9">
-        <v>1.441660754019509</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007773964721224458</v>
+        <v>0.122617798858478</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02040416055747118</v>
       </c>
       <c r="I9">
-        <v>0.0951985604225456</v>
+        <v>0.01075828002937929</v>
       </c>
       <c r="J9">
-        <v>0.01787754073308179</v>
+        <v>0.1293005777696337</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.07152292045457709</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.380325672990011</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9123782259432005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.4817766439377067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.610172932794114</v>
+        <v>5.253332300232671</v>
       </c>
       <c r="C10">
-        <v>0.9099809590437928</v>
+        <v>1.479712714492678</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4751162973137539</v>
+        <v>1.955716498487192</v>
       </c>
       <c r="F10">
-        <v>1.637369010398359</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.0007705449502010889</v>
+        <v>0.1297221849824126</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0272887699074631</v>
       </c>
       <c r="I10">
-        <v>0.08270926336991202</v>
+        <v>0.01521030083020936</v>
       </c>
       <c r="J10">
-        <v>0.01754744750703807</v>
+        <v>0.1241275937239266</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.05775077534175455</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.640678034230007</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9929492730411198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.486474082207053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.867903380507187</v>
+        <v>5.614679461843821</v>
       </c>
       <c r="C11">
-        <v>0.9727632302348752</v>
+        <v>1.547139209187833</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5025995034487636</v>
+        <v>1.265649835124677</v>
       </c>
       <c r="F11">
-        <v>1.730975683888701</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007674913238628751</v>
+        <v>0.09274109569151534</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04244197266383765</v>
       </c>
       <c r="I11">
-        <v>0.07824802943965636</v>
+        <v>0.01680606659522343</v>
       </c>
       <c r="J11">
-        <v>0.01744907305299748</v>
+        <v>0.1017204861364078</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.05648444375606498</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.760171925602904</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.035918388584804</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.3612679552103657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.96571435419861</v>
+        <v>5.749317976951261</v>
       </c>
       <c r="C12">
-        <v>0.9965895968885263</v>
+        <v>1.551843720289753</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5131278394594503</v>
+        <v>0.7697260293098083</v>
       </c>
       <c r="F12">
-        <v>1.767151112274561</v>
+        <v>2.518780942186353</v>
       </c>
       <c r="G12">
-        <v>0.0007663434167094593</v>
+        <v>0.06588982132057097</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07825801880659355</v>
       </c>
       <c r="I12">
-        <v>0.07674930951541548</v>
+        <v>0.01694058381040975</v>
       </c>
       <c r="J12">
-        <v>0.01741978423384261</v>
+        <v>0.08650238085446205</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.06146322389719217</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.805600209606624</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.053188378166624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.2724847854936812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.94463877946464</v>
+        <v>5.715921679600967</v>
       </c>
       <c r="C13">
-        <v>0.9914556646112374</v>
+        <v>1.515449244818285</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5108547825960983</v>
+        <v>0.3942186882377854</v>
       </c>
       <c r="F13">
-        <v>1.759326498073804</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0007665902746459159</v>
+        <v>0.04364278881923056</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1312775349523321</v>
       </c>
       <c r="I13">
-        <v>0.07706335157711663</v>
+        <v>0.01623217805556365</v>
       </c>
       <c r="J13">
-        <v>0.01742572923189201</v>
+        <v>0.07499540135474092</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.07105168495991876</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.795808030617067</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.049423053064316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.2011513207329756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.875945803442448</v>
+        <v>5.616449949739206</v>
       </c>
       <c r="C14">
-        <v>0.9747223309377091</v>
+        <v>1.472919633289109</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.503463175641933</v>
+        <v>0.2041921148995485</v>
       </c>
       <c r="F14">
-        <v>1.733936831811278</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
-        <v>0.0007673967196276176</v>
+        <v>0.03069269176658906</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.17887234785141</v>
       </c>
       <c r="I14">
-        <v>0.07812081659922754</v>
+        <v>0.01545373275464534</v>
       </c>
       <c r="J14">
-        <v>0.01744650072941667</v>
+        <v>0.06880736004776367</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.08024710257237366</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.763905600411391</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.037318646616882</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.1606500929792318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.833898562827301</v>
+        <v>5.556274220398393</v>
       </c>
       <c r="C15">
-        <v>0.9644797990024188</v>
+        <v>1.455661797221751</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4989517505547809</v>
+        <v>0.1669725423595168</v>
       </c>
       <c r="F15">
-        <v>1.718482002505283</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007678917688456986</v>
+        <v>0.02779973846925543</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1908028960803421</v>
       </c>
       <c r="I15">
-        <v>0.07879384430417424</v>
+        <v>0.01517151364970193</v>
       </c>
       <c r="J15">
-        <v>0.01746027702685282</v>
+        <v>0.0677560569390252</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.08321788227141447</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.744388513697146</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.030037185471826</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.1522744797824629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.593357213698198</v>
+        <v>5.213880665174486</v>
       </c>
       <c r="C16">
-        <v>0.9058846716427809</v>
+        <v>1.374915330192607</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4733364477493893</v>
+        <v>0.1639571404848077</v>
       </c>
       <c r="F16">
-        <v>1.631349592116507</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007707457286486577</v>
+        <v>0.0288338694236181</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.175926054428075</v>
       </c>
       <c r="I16">
-        <v>0.08302664062125054</v>
+        <v>0.01347859694555442</v>
       </c>
       <c r="J16">
-        <v>0.01755496176745197</v>
+        <v>0.07184604065500366</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.08614072387244143</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.632892324455767</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9902757950568173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.1628444808164957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.446127855540055</v>
+        <v>5.004678303735659</v>
       </c>
       <c r="C17">
-        <v>0.8700194409053381</v>
+        <v>1.335783197512058</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4578243628666954</v>
+        <v>0.2490150009634462</v>
       </c>
       <c r="F17">
-        <v>1.579117421240625</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007725122726359667</v>
+        <v>0.03611471505186259</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1373607847831693</v>
       </c>
       <c r="I17">
-        <v>0.08594628694293327</v>
+        <v>0.01262235448812099</v>
       </c>
       <c r="J17">
-        <v>0.01762666571402605</v>
+        <v>0.0781554738466923</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.08345458174638942</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.564782123644875</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9675632816842494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.1913957201795782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.361555170039935</v>
+        <v>4.8859979094957</v>
       </c>
       <c r="C18">
-        <v>0.8494170748808187</v>
+        <v>1.324119921017825</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4489725824884943</v>
+        <v>0.4829405266277647</v>
       </c>
       <c r="F18">
-        <v>1.54950121983326</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007735343290486935</v>
+        <v>0.05213055410224854</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08527804234289249</v>
       </c>
       <c r="I18">
-        <v>0.08773946541456112</v>
+        <v>0.01214998897904707</v>
       </c>
       <c r="J18">
-        <v>0.01767274892865522</v>
+        <v>0.08821578235009753</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.07666077451540332</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.525704840424353</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9550884156040809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.2463928415988548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.332937934485301</v>
+        <v>4.848608181279246</v>
       </c>
       <c r="C19">
-        <v>0.842445684731473</v>
+        <v>1.344153406823011</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4459872477658209</v>
+        <v>0.9175744055073238</v>
       </c>
       <c r="F19">
-        <v>1.539544863147924</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007738814270217156</v>
+        <v>0.07638102197110186</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04274472414191877</v>
       </c>
       <c r="I19">
-        <v>0.08836571934243054</v>
+        <v>0.0125446597076051</v>
       </c>
       <c r="J19">
-        <v>0.01768916831611911</v>
+        <v>0.1013853104222235</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.06986723977144038</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.512489992338416</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9509631322156906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.3254236035212443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.461789019585638</v>
+        <v>5.040579696079647</v>
       </c>
       <c r="C20">
-        <v>0.8738345524739657</v>
+        <v>1.437638169393153</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4594682828101853</v>
+        <v>1.894370881399283</v>
       </c>
       <c r="F20">
-        <v>1.584633007498425</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007723236059561186</v>
+        <v>0.1245262025270861</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02534066905492738</v>
       </c>
       <c r="I20">
-        <v>0.08562359371462414</v>
+        <v>0.01459606407820591</v>
       </c>
       <c r="J20">
-        <v>0.01761852807629083</v>
+        <v>0.1236865061761492</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.06117808996121621</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.572022254528193</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9699195019490503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.474413069623921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.89611643174527</v>
+        <v>5.662761349546315</v>
       </c>
       <c r="C21">
-        <v>0.9796358126912139</v>
+        <v>1.605326165751137</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5056308810878392</v>
+        <v>2.219687526033866</v>
       </c>
       <c r="F21">
-        <v>1.741374028104616</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007671596237120832</v>
+        <v>0.1392601068130546</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.03216409676511534</v>
       </c>
       <c r="I21">
-        <v>0.07780491220504082</v>
+        <v>0.01841439553278956</v>
       </c>
       <c r="J21">
-        <v>0.01744017917619445</v>
+        <v>0.1244311958761131</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.05121459452871591</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.773271050366048</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.040846149662059</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.5075764100831748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.181244434764892</v>
+        <v>6.069237182900451</v>
       </c>
       <c r="C22">
-        <v>1.049092338201973</v>
+        <v>1.707576794552153</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5365128560711057</v>
+        <v>2.381144044204163</v>
       </c>
       <c r="F22">
-        <v>1.848097270693401</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.0007638334904728561</v>
+        <v>0.1482606331959389</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03653976188469521</v>
       </c>
       <c r="I22">
-        <v>0.07381415803177482</v>
+        <v>0.02082811753100167</v>
       </c>
       <c r="J22">
-        <v>0.01737030701278641</v>
+        <v>0.1247047075511247</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.0453443073915949</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.905853381439755</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.093068213275899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.5274593248007307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.028935129541594</v>
+        <v>5.852376908974293</v>
       </c>
       <c r="C23">
-        <v>1.011989975587994</v>
+        <v>1.647583214587428</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5199610507076073</v>
+        <v>2.294930079295554</v>
       </c>
       <c r="F23">
-        <v>1.790720279473078</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007656044699838376</v>
+        <v>0.1445099188351904</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.03418288873254083</v>
       </c>
       <c r="I23">
-        <v>0.0758363526698318</v>
+        <v>0.01927483232910099</v>
       </c>
       <c r="J23">
-        <v>0.0174031446980738</v>
+        <v>0.1251211807618233</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.04842976582578906</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.834985875264792</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.064627703154258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.5202581317507935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.454708387965297</v>
+        <v>5.03119909997605</v>
       </c>
       <c r="C24">
-        <v>0.8721096882794939</v>
+        <v>1.430108947556903</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4587248609386521</v>
+        <v>1.969991581657681</v>
       </c>
       <c r="F24">
-        <v>1.582138130510174</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
-        <v>0.0007724088820138031</v>
+        <v>0.1299005857927469</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02581570412379741</v>
       </c>
       <c r="I24">
-        <v>0.08576912739503939</v>
+        <v>0.01422827534212168</v>
       </c>
       <c r="J24">
-        <v>0.01762219200413107</v>
+        <v>0.1265270209862166</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.06120183278647207</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.568748743582162</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9688524460152053</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.4917581566265312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.83936525389197</v>
+        <v>4.145310916882181</v>
       </c>
       <c r="C25">
-        <v>0.722198269895614</v>
+        <v>1.197065366015693</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3953203818587454</v>
+        <v>1.622174679422912</v>
       </c>
       <c r="F25">
-        <v>1.373211963242795</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007799796783765195</v>
+        <v>0.1168156152556961</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01783008685914511</v>
       </c>
       <c r="I25">
-        <v>0.1007852290568945</v>
+        <v>0.009638936577728963</v>
       </c>
       <c r="J25">
-        <v>0.01804181709326436</v>
+        <v>0.1296033107133781</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.07707497100404437</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.285223104292712</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8877475954919163</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.4699267689849762</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.492327180959364</v>
+        <v>3.489466591918585</v>
       </c>
       <c r="C2">
-        <v>1.01375156001339</v>
+        <v>0.9922203704517187</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.367642178157098</v>
+        <v>1.364429430473123</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.1118591600416536</v>
+        <v>0.1044574340287099</v>
       </c>
       <c r="H2">
-        <v>0.01269004585145844</v>
+        <v>0.01232991506353698</v>
       </c>
       <c r="I2">
-        <v>0.006307606325103521</v>
+        <v>0.006048458990815853</v>
       </c>
       <c r="J2">
-        <v>0.1345408721331651</v>
+        <v>0.1804611438520993</v>
       </c>
       <c r="K2">
-        <v>0.09049857989100807</v>
+        <v>0.0928373297259415</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07555094199437518</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01187380038003827</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.4693460752656904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.4917114343945741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.048677555731331</v>
+        <v>3.047574722554657</v>
       </c>
       <c r="C3">
-        <v>0.8973655761042778</v>
+        <v>0.870736154532409</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.195606632424287</v>
+        <v>1.193316539502462</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.1079293172517737</v>
+        <v>0.1004826336021551</v>
       </c>
       <c r="H3">
-        <v>0.009575711408144998</v>
+        <v>0.009339951659075071</v>
       </c>
       <c r="I3">
-        <v>0.004637856491434889</v>
+        <v>0.004594212483536531</v>
       </c>
       <c r="J3">
-        <v>0.1376815033819483</v>
+        <v>0.1828555569011883</v>
       </c>
       <c r="K3">
-        <v>0.1004320657772373</v>
+        <v>0.1019720653306465</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0798587719313586</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01544772660052285</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.4672981293679612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.4913795808822812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.775687508572105</v>
+        <v>2.775576805345622</v>
       </c>
       <c r="C4">
-        <v>0.8263039996192276</v>
+        <v>0.7967583228904402</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.090111757140136</v>
+        <v>1.088356260543037</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.139972825279798</v>
       </c>
       <c r="G4">
-        <v>0.1059133832747428</v>
+        <v>0.09840967329896699</v>
       </c>
       <c r="H4">
-        <v>0.007824563885018648</v>
+        <v>0.007655124035154559</v>
       </c>
       <c r="I4">
-        <v>0.003746977365889137</v>
+        <v>0.003814648313959168</v>
       </c>
       <c r="J4">
-        <v>0.1398799740796122</v>
+        <v>0.184448597296047</v>
       </c>
       <c r="K4">
-        <v>0.1069381637796163</v>
+        <v>0.1079403373327437</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0828976812417821</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01802833866990117</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.4674412523900315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.4922453793836326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.664255534178153</v>
+        <v>2.66453032225894</v>
       </c>
       <c r="C5">
-        <v>0.7987325464705464</v>
+        <v>0.7679872892669266</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.047128460474582</v>
+        <v>1.045584052050799</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.1048940403874461</v>
+        <v>0.09736409326879425</v>
       </c>
       <c r="H5">
-        <v>0.007146949554895143</v>
+        <v>0.007002258729557842</v>
       </c>
       <c r="I5">
-        <v>0.003469646324628872</v>
+        <v>0.003590789127724037</v>
       </c>
       <c r="J5">
-        <v>0.1406810161413894</v>
+        <v>0.1849600195160193</v>
       </c>
       <c r="K5">
-        <v>0.1096619658436935</v>
+        <v>0.1104192853073351</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.08416171912535741</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0192149619476778</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.46687962425991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.4918983275805999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.645709820157379</v>
+        <v>2.646047377854245</v>
       </c>
       <c r="C6">
-        <v>0.7957468561315295</v>
+        <v>0.7647254631367275</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.039978129753806</v>
+        <v>1.038468517119583</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.1043757974656643</v>
+        <v>0.0968470846472016</v>
       </c>
       <c r="H6">
-        <v>0.007035305894304122</v>
+        <v>0.006894610236622412</v>
       </c>
       <c r="I6">
-        <v>0.003499703784749286</v>
+        <v>0.003646712499520532</v>
       </c>
       <c r="J6">
-        <v>0.1406230770910817</v>
+        <v>0.1848426576738333</v>
       </c>
       <c r="K6">
-        <v>0.1100906217505757</v>
+        <v>0.1107889658010649</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08428959671615299</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01946669258719869</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.4656462904419243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.4906962530489238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.774096614494738</v>
+        <v>2.773944594437012</v>
       </c>
       <c r="C7">
-        <v>0.8302789034200657</v>
+        <v>0.7998411317769296</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.089495107022131</v>
+        <v>1.087699607118594</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.1049313372982894</v>
+        <v>0.09896005667556551</v>
       </c>
       <c r="H7">
-        <v>0.007811710060360494</v>
+        <v>0.007638503138713837</v>
       </c>
       <c r="I7">
-        <v>0.003931937916518358</v>
+        <v>0.004040372791448199</v>
       </c>
       <c r="J7">
-        <v>0.1393597690578616</v>
+        <v>0.1813648064153739</v>
       </c>
       <c r="K7">
-        <v>0.1068976308320553</v>
+        <v>0.1078228800629971</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08261960411276359</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01821094302926962</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.4642682611299875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.4872594555993146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.339354334647908</v>
+        <v>3.336965388384044</v>
       </c>
       <c r="C8">
-        <v>0.9793473075787347</v>
+        <v>0.9535299716116583</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.30823848665996</v>
+        <v>1.305209066306062</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
-        <v>0.1091400983810473</v>
+        <v>0.106839442722503</v>
       </c>
       <c r="H8">
-        <v>0.011575460100336</v>
+        <v>0.01124500023089592</v>
       </c>
       <c r="I8">
-        <v>0.005928126859203076</v>
+        <v>0.00578668144058625</v>
       </c>
       <c r="J8">
-        <v>0.1348701926622624</v>
+        <v>0.1724179801316907</v>
       </c>
       <c r="K8">
-        <v>0.09375570342139938</v>
+        <v>0.09573129371408018</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07658779436419083</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01322850857426916</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.4641709004021379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.4812636780344945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.443976795353365</v>
+        <v>4.43651469380859</v>
       </c>
       <c r="C9">
-        <v>1.267366709062856</v>
+        <v>1.255018893100157</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.739118308244073</v>
+        <v>1.733512041099402</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.122617798858478</v>
+        <v>0.1216796205986768</v>
       </c>
       <c r="H9">
-        <v>0.02040416055747118</v>
+        <v>0.01968844353476884</v>
       </c>
       <c r="I9">
-        <v>0.01075828002937929</v>
+        <v>0.009876976822535966</v>
       </c>
       <c r="J9">
-        <v>0.1293005777696337</v>
+        <v>0.16566603974983</v>
       </c>
       <c r="K9">
-        <v>0.07152292045457709</v>
+        <v>0.07529057311908516</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06841839352813794</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.006332773256097601</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.4817766439377067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.4910194531379091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.253332300232671</v>
+        <v>5.241212173613746</v>
       </c>
       <c r="C10">
-        <v>1.479712714492678</v>
+        <v>1.472253257755312</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.955716498487192</v>
+        <v>1.94793395583045</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.1297221849824126</v>
+        <v>0.139085592445042</v>
       </c>
       <c r="H10">
-        <v>0.0272887699074631</v>
+        <v>0.02620697268414451</v>
       </c>
       <c r="I10">
-        <v>0.01521030083020936</v>
+        <v>0.01363287561040494</v>
       </c>
       <c r="J10">
-        <v>0.1241275937239266</v>
+        <v>0.1465988622779975</v>
       </c>
       <c r="K10">
-        <v>0.05775077534175455</v>
+        <v>0.06265725776429676</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06450823081977397</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.003332889239920478</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.486474082207053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.4795014365312085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.614679461843821</v>
+        <v>5.600623673560222</v>
       </c>
       <c r="C11">
-        <v>1.547139209187833</v>
+        <v>1.51850615383745</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.265649835124677</v>
+        <v>1.258560626425194</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.09274109569151534</v>
+        <v>0.1213135422877514</v>
       </c>
       <c r="H11">
-        <v>0.04244197266383765</v>
+        <v>0.04132300956819179</v>
       </c>
       <c r="I11">
-        <v>0.01680606659522343</v>
+        <v>0.01504945524688761</v>
       </c>
       <c r="J11">
-        <v>0.1017204861364078</v>
+        <v>0.1110365198885042</v>
       </c>
       <c r="K11">
-        <v>0.05648444375606498</v>
+        <v>0.06282440161475833</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06591138686954512</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.003177427093571161</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.3612679552103657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.3462444632579746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.749317976951261</v>
+        <v>5.734746573667223</v>
       </c>
       <c r="C12">
-        <v>1.551843720289753</v>
+        <v>1.50692351545888</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7697260293098083</v>
+        <v>0.7637162103405899</v>
       </c>
       <c r="F12">
         <v>2.518780942186353</v>
       </c>
       <c r="G12">
-        <v>0.06588982132057097</v>
+        <v>0.09996927982452064</v>
       </c>
       <c r="H12">
-        <v>0.07825801880659355</v>
+        <v>0.07718200758103677</v>
       </c>
       <c r="I12">
-        <v>0.01694058381040975</v>
+        <v>0.01511653585358541</v>
       </c>
       <c r="J12">
-        <v>0.08650238085446205</v>
+        <v>0.09930410890343744</v>
       </c>
       <c r="K12">
-        <v>0.06146322389719217</v>
+        <v>0.06846712634206042</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06910546771968384</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.004543795039232634</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.2724847854936812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.2607030608995018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.715921679600967</v>
+        <v>5.702028304580665</v>
       </c>
       <c r="C13">
-        <v>1.515449244818285</v>
+        <v>1.458718185980786</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3942186882377854</v>
+        <v>0.3894899046275953</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.04364278881923056</v>
+        <v>0.07165108753713412</v>
       </c>
       <c r="H13">
-        <v>0.1312775349523321</v>
+        <v>0.1303075428509288</v>
       </c>
       <c r="I13">
-        <v>0.01623217805556365</v>
+        <v>0.01451841768903339</v>
       </c>
       <c r="J13">
-        <v>0.07499540135474092</v>
+        <v>0.09724448721497425</v>
       </c>
       <c r="K13">
-        <v>0.07105168495991876</v>
+        <v>0.07706864907903999</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07258543797979833</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.007087500505878808</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.2011513207329756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.200702090913623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.616449949739206</v>
+        <v>5.603529110425939</v>
       </c>
       <c r="C14">
-        <v>1.472919633289109</v>
+        <v>1.40984896903484</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2041921148995485</v>
+        <v>0.2003422431561148</v>
       </c>
       <c r="F14">
         <v>2.457142640142266</v>
       </c>
       <c r="G14">
-        <v>0.03069269176658906</v>
+        <v>0.05090167832608472</v>
       </c>
       <c r="H14">
-        <v>0.17887234785141</v>
+        <v>0.1779954509604948</v>
       </c>
       <c r="I14">
-        <v>0.01545373275464534</v>
+        <v>0.01390507752256553</v>
       </c>
       <c r="J14">
-        <v>0.06880736004776367</v>
+        <v>0.09776214179451559</v>
       </c>
       <c r="K14">
-        <v>0.08024710257237366</v>
+        <v>0.08437141993610453</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07494250240997324</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.009579021913366681</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.1606500929792318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.1692643679315609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.556274220398393</v>
+        <v>5.543840963304831</v>
       </c>
       <c r="C15">
-        <v>1.455661797221751</v>
+        <v>1.391778159770467</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1669725423595168</v>
+        <v>0.163369395065871</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.02779973846925543</v>
+        <v>0.04484099522140994</v>
       </c>
       <c r="H15">
-        <v>0.1908028960803421</v>
+        <v>0.1899638987517847</v>
       </c>
       <c r="I15">
-        <v>0.01517151364970193</v>
+        <v>0.01372338691554909</v>
       </c>
       <c r="J15">
-        <v>0.0677560569390252</v>
+        <v>0.09858456573868368</v>
       </c>
       <c r="K15">
-        <v>0.08321788227141447</v>
+        <v>0.08646381939215253</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07537889972760858</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01039716341011765</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.1522744797824629</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.1638860999155298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.213880665174486</v>
+        <v>5.203809824705388</v>
       </c>
       <c r="C16">
-        <v>1.374915330192607</v>
+        <v>1.317838772438108</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1639571404848077</v>
+        <v>0.1608360322388975</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0288338694236181</v>
+        <v>0.03541409730842204</v>
       </c>
       <c r="H16">
-        <v>0.175926054428075</v>
+        <v>0.1752464085617902</v>
       </c>
       <c r="I16">
-        <v>0.01347859694555442</v>
+        <v>0.01240860550615519</v>
       </c>
       <c r="J16">
-        <v>0.07184604065500366</v>
+        <v>0.1086212809887037</v>
       </c>
       <c r="K16">
-        <v>0.08614072387244143</v>
+        <v>0.08687211043428356</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07338994508623209</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01124256598180828</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.1628444808164957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.1840072547435483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.004678303735659</v>
+        <v>4.995814396417984</v>
       </c>
       <c r="C17">
-        <v>1.335783197512058</v>
+        <v>1.286152932240384</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2490150009634462</v>
+        <v>0.2458785702273119</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.03611471505186259</v>
+        <v>0.03872732656806477</v>
       </c>
       <c r="H17">
-        <v>0.1373607847831693</v>
+        <v>0.1367500191180397</v>
       </c>
       <c r="I17">
-        <v>0.01262235448812099</v>
+        <v>0.01174477267675034</v>
       </c>
       <c r="J17">
-        <v>0.0781554738466923</v>
+        <v>0.1187960853789036</v>
       </c>
       <c r="K17">
-        <v>0.08345458174638942</v>
+        <v>0.0840841347401966</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07129116838714467</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01056544567067874</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.1913957201795782</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.2163446761785011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.8859979094957</v>
+        <v>4.87759426181259</v>
       </c>
       <c r="C18">
-        <v>1.324119921017825</v>
+        <v>1.285081006997075</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4829405266277647</v>
+        <v>0.4793467697665648</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.05213055410224854</v>
+        <v>0.05270794733236883</v>
       </c>
       <c r="H18">
-        <v>0.08527804234289249</v>
+        <v>0.0846693441490487</v>
       </c>
       <c r="I18">
-        <v>0.01214998897904707</v>
+        <v>0.01129137843276418</v>
       </c>
       <c r="J18">
-        <v>0.08821578235009753</v>
+        <v>0.1308522771605745</v>
       </c>
       <c r="K18">
-        <v>0.07666077451540332</v>
+        <v>0.07857788558533585</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0689836517098783</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.00854136733093469</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.2463928415988548</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.2718329725988156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.848608181279246</v>
+        <v>4.840012229392016</v>
       </c>
       <c r="C19">
-        <v>1.344153406823011</v>
+        <v>1.31778666930802</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9175744055073238</v>
+        <v>0.9130672691834576</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.07638102197110186</v>
+        <v>0.07540927611267279</v>
       </c>
       <c r="H19">
-        <v>0.04274472414191877</v>
+        <v>0.04206946711997261</v>
       </c>
       <c r="I19">
-        <v>0.0125446597076051</v>
+        <v>0.01167384493615753</v>
       </c>
       <c r="J19">
-        <v>0.1013853104222235</v>
+        <v>0.1442506847154412</v>
       </c>
       <c r="K19">
-        <v>0.06986723977144038</v>
+        <v>0.07322531988289427</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06726009827335755</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.006426904599321936</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.3254236035212443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.3473933271055927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.040579696079647</v>
+        <v>5.02993046839407</v>
       </c>
       <c r="C20">
-        <v>1.437638169393153</v>
+        <v>1.430746485566033</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.894370881399283</v>
+        <v>1.887339044843102</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.1245262025270861</v>
+        <v>0.125630292447795</v>
       </c>
       <c r="H20">
-        <v>0.02534066905492738</v>
+        <v>0.02438261761078842</v>
       </c>
       <c r="I20">
-        <v>0.01459606407820591</v>
+        <v>0.01340308423502368</v>
       </c>
       <c r="J20">
-        <v>0.1236865061761492</v>
+        <v>0.1576317710503545</v>
       </c>
       <c r="K20">
-        <v>0.06117808996121621</v>
+        <v>0.06578283460945533</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06533078928432579</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.004004523272408966</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.474413069623921</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.4785302532461486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.662761349546315</v>
+        <v>5.64714679234163</v>
       </c>
       <c r="C21">
-        <v>1.605326165751137</v>
+        <v>1.592165862069692</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.219687526033866</v>
+        <v>2.20970771822833</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.1392601068130546</v>
+        <v>0.1798820334134845</v>
       </c>
       <c r="H21">
-        <v>0.03216409676511534</v>
+        <v>0.03074490531346941</v>
       </c>
       <c r="I21">
-        <v>0.01841439553278956</v>
+        <v>0.01643200966401093</v>
       </c>
       <c r="J21">
-        <v>0.1244311958761131</v>
+        <v>0.1148819979135638</v>
       </c>
       <c r="K21">
-        <v>0.05121459452871591</v>
+        <v>0.05702050426580518</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06334397511087442</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.002191392643122757</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.5075764100831748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.4636434108422804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.069237182900451</v>
+        <v>6.050161786629474</v>
       </c>
       <c r="C22">
-        <v>1.707576794552153</v>
+        <v>1.688462742172078</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.381144044204163</v>
+        <v>2.369244344372959</v>
       </c>
       <c r="F22">
         <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.1482606331959389</v>
+        <v>0.2208318499764914</v>
       </c>
       <c r="H22">
-        <v>0.03653976188469521</v>
+        <v>0.03480092047888039</v>
       </c>
       <c r="I22">
-        <v>0.02082811753100167</v>
+        <v>0.0182143492687068</v>
       </c>
       <c r="J22">
-        <v>0.1247047075511247</v>
+        <v>0.09580307454860915</v>
       </c>
       <c r="K22">
-        <v>0.0453443073915949</v>
+        <v>0.05208865291150833</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.06273216927154923</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.001342101771758086</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.5274593248007307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.4498288790138503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.852376908974293</v>
+        <v>5.83528366548569</v>
       </c>
       <c r="C23">
-        <v>1.647583214587428</v>
+        <v>1.63371993957827</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.294930079295554</v>
+        <v>2.284161333638167</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.1445099188351904</v>
+        <v>0.1949550015547885</v>
       </c>
       <c r="H23">
-        <v>0.03418288873254083</v>
+        <v>0.03263127069018301</v>
       </c>
       <c r="I23">
-        <v>0.01927483232910099</v>
+        <v>0.01695483011739096</v>
       </c>
       <c r="J23">
-        <v>0.1251211807618233</v>
+        <v>0.1078545096269146</v>
       </c>
       <c r="K23">
-        <v>0.04842976582578906</v>
+        <v>0.05449315528978493</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06287417775781723</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.001787010092803742</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.5202581317507935</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.4646988421627611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.03119909997605</v>
+        <v>5.02053494127864</v>
       </c>
       <c r="C24">
-        <v>1.430108947556903</v>
+        <v>1.424953812592264</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.969991581657681</v>
+        <v>1.962817061636898</v>
       </c>
       <c r="F24">
         <v>2.170038921572853</v>
       </c>
       <c r="G24">
-        <v>0.1299005857927469</v>
+        <v>0.13044906167476</v>
       </c>
       <c r="H24">
-        <v>0.02581570412379741</v>
+        <v>0.0248451390317177</v>
       </c>
       <c r="I24">
-        <v>0.01422827534212168</v>
+        <v>0.01292934149009906</v>
       </c>
       <c r="J24">
-        <v>0.1265270209862166</v>
+        <v>0.1605988284591291</v>
       </c>
       <c r="K24">
-        <v>0.06120183278647207</v>
+        <v>0.06575799760224066</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06533876638021185</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.004005286187002299</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.4917581566265312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.4949226477483677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.145310916882181</v>
+        <v>4.139405666226139</v>
       </c>
       <c r="C25">
-        <v>1.197065366015693</v>
+        <v>1.181557549946149</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.622174679422912</v>
+        <v>1.617370093379122</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.1168156152556961</v>
+        <v>0.1133688095571515</v>
       </c>
       <c r="H25">
-        <v>0.01783008685914511</v>
+        <v>0.01723786567791918</v>
       </c>
       <c r="I25">
-        <v>0.009638936577728963</v>
+        <v>0.009077276989441607</v>
       </c>
       <c r="J25">
-        <v>0.1296033107133781</v>
+        <v>0.1698384462595683</v>
       </c>
       <c r="K25">
-        <v>0.07707497100404437</v>
+        <v>0.0804077045598075</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07019669910177548</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.007878959209805192</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.4699267689849762</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.4843471505494676</v>
       </c>
     </row>
   </sheetData>
